--- a/image/regulatedauthorization.xlsx
+++ b/image/regulatedauthorization.xlsx
@@ -775,42 +775,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.72265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="190.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="64.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="65.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/regulatedauthorization.xlsx
+++ b/image/regulatedauthorization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="189">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -342,36 +342,45 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RegulatedMedicinalProduct|RegulatedPackagedProduct)
+    <t xml:space="preserve">Reference(MedicinalProductDefinition|PackagedProductDefinition|DeviceDefinition|ResearchStudy|ActivityDefinition|PlanDefinition)
 </t>
   </si>
   <si>
-    <t>The medicinal product that is being authorized</t>
-  </si>
-  <si>
-    <t>The medicinal product that is being authorized.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.country</t>
+    <t>The product that is being authorized</t>
+  </si>
+  <si>
+    <t>The product that is being authorized.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The country in which the marketing authorization has been granted</t>
-  </si>
-  <si>
-    <t>The country in which the marketing authorization has been granted.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdiction</t>
-  </si>
-  <si>
-    <t>Jurisdiction within a country</t>
-  </si>
-  <si>
-    <t>Jurisdiction within a country.</t>
+    <t>Type of this authorization, for example drug marketing approval, orphan drug designation</t>
+  </si>
+  <si>
+    <t>Type of this authorization, for example drug marketing approval, orphan drug designation.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.description</t>
+  </si>
+  <si>
+    <t>General textual supporting information</t>
+  </si>
+  <si>
+    <t>General textual supporting information.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.region</t>
+  </si>
+  <si>
+    <t>The region (country, jurisdiction etc.) in which the marketing authorization has been granted</t>
+  </si>
+  <si>
+    <t>The region (country, jurisdiction etc.) in which the marketing authorization has been granted.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status</t>
@@ -396,15 +405,6 @@
     <t>The date at which the given status has become applicable.</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.restoreDate</t>
-  </si>
-  <si>
-    <t>The date when a suspended the marketing or the marketing authorization of the product is anticipated to be restored</t>
-  </si>
-  <si>
-    <t>The date when a suspended the marketing or the marketing authorization of the product is anticipated to be restored.</t>
-  </si>
-  <si>
     <t>RegulatedAuthorization.validityPeriod</t>
   </si>
   <si>
@@ -418,64 +418,33 @@
     <t>The beginning of the time period in which the marketing authorization is in the specific status shall be specified A complete date consisting of day, month and year shall be specified using the ISO 8601 date format.</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.dataExclusivityPeriod</t>
-  </si>
-  <si>
-    <t>A period of time after authorization before generic product applicatiosn can be submitted</t>
-  </si>
-  <si>
-    <t>A period of time after authorization before generic product applicatiosn can be submitted.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.dateOfFirstAuthorization</t>
-  </si>
-  <si>
-    <t>The date when the first authorization was granted by a Medicines Regulatory Agency</t>
-  </si>
-  <si>
-    <t>The date when the first authorization was granted by a Medicines Regulatory Agency.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.internationalBirthDate</t>
-  </si>
-  <si>
-    <t>Date of first marketing authorization for a company's new medicinal product in any country in the World</t>
-  </si>
-  <si>
-    <t>Date of first marketing authorization for a company's new medicinal product in any country in the World.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.legalBasis</t>
-  </si>
-  <si>
-    <t>The legal framework against which this authorization is granted</t>
-  </si>
-  <si>
-    <t>The legal framework against which this authorization is granted.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization</t>
+    <t>RegulatedAuthorization.basis</t>
+  </si>
+  <si>
+    <t>The legal framework against which this authorization is granted, or other reasons for it</t>
+  </si>
+  <si>
+    <t>The legal framework against which this authorization is granted, or other reasons for it.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.relatedDate</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Authorization in areas within a country</t>
-  </si>
-  <si>
-    <t>Authorization in areas within a country.</t>
+    <t>Other dates associated with the authorization. It is common for an authorization to have renewal dates, initial time limited phases and so on</t>
+  </si>
+  <si>
+    <t>Other dates associated with the authorization. It is common for an authorization to have renewal dates, initial time limited phases and so on.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
+    <t>RegulatedAuthorization.relatedDate.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -490,7 +459,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.extension</t>
+    <t>RegulatedAuthorization.relatedDate.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -499,7 +468,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.modifierExtension</t>
+    <t>RegulatedAuthorization.relatedDate.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -516,43 +485,39 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.identifier</t>
-  </si>
-  <si>
-    <t>The assigned number for the marketing authorization</t>
-  </si>
-  <si>
-    <t>The assigned number for the marketing authorization.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.country</t>
-  </si>
-  <si>
-    <t>Country of authorization</t>
-  </si>
-  <si>
-    <t>Country of authorization.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.jurisdiction</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.legalStatusOfSupply</t>
-  </si>
-  <si>
-    <t>The legal status of supply in a jurisdiction or region</t>
-  </si>
-  <si>
-    <t>The legal status of supply in a jurisdiction or region.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.jurisdictionalAuthorization.validityPeriod</t>
-  </si>
-  <si>
-    <t>The start and expected end date of the authorization</t>
-  </si>
-  <si>
-    <t>The start and expected end date of the authorization.</t>
+    <t>RegulatedAuthorization.relatedDate.date[x]</t>
+  </si>
+  <si>
+    <t>Period
+dateTime</t>
+  </si>
+  <si>
+    <t>Another date associated with the authorization</t>
+  </si>
+  <si>
+    <t>Another date associated with the authorization.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.relatedDate.type</t>
+  </si>
+  <si>
+    <t>Type of this date, for example the data exclusitity period for a medicinal product</t>
+  </si>
+  <si>
+    <t>Type of this date, for example the data exclusitity period for a medicinal product.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.jurisdictionalAuthorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(RegulatedAuthorization)
+</t>
+  </si>
+  <si>
+    <t>Authorization in areas within a country</t>
+  </si>
+  <si>
+    <t>Authorization in areas within a country.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.holder</t>
@@ -577,62 +542,67 @@
     <t>Medicines Regulatory Agency.</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.procedure</t>
-  </si>
-  <si>
-    <t>The regulatory procedure for granting or amending a marketing authorization</t>
-  </si>
-  <si>
-    <t>The regulatory procedure for granting or amending a marketing authorization.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.identifier</t>
-  </si>
-  <si>
-    <t>Identifier for this procedure</t>
-  </si>
-  <si>
-    <t>Identifier for this procedure.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.type</t>
-  </si>
-  <si>
-    <t>Type of procedure</t>
-  </si>
-  <si>
-    <t>Type of procedure.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.date[x]</t>
-  </si>
-  <si>
-    <t>Period
-dateTime</t>
-  </si>
-  <si>
-    <t>Date of procedure</t>
-  </si>
-  <si>
-    <t>Date of procedure.</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.procedure.application</t>
-  </si>
-  <si>
-    <t>Applcations submitted to obtain a marketing authorization</t>
-  </si>
-  <si>
-    <t>Applcations submitted to obtain a marketing authorization.</t>
+    <t>RegulatedAuthorization.case</t>
+  </si>
+  <si>
+    <t>The case or regulatory procedure for granting or amending a marketing authorization</t>
+  </si>
+  <si>
+    <t>The case or regulatory procedure for granting or amending a marketing authorization.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.modifierExtension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.identifier</t>
+  </si>
+  <si>
+    <t>Identifier for this case</t>
+  </si>
+  <si>
+    <t>Identifier for this case.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.type</t>
+  </si>
+  <si>
+    <t>Type of case</t>
+  </si>
+  <si>
+    <t>Type of case.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.status</t>
+  </si>
+  <si>
+    <t>The status of the case</t>
+  </si>
+  <si>
+    <t>The status of the case.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.date[x]</t>
+  </si>
+  <si>
+    <t>Date of case</t>
+  </si>
+  <si>
+    <t>Date of case.</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.case.application</t>
+  </si>
+  <si>
+    <t>Applcations submitted to obtain a marketing authorization. Steps within the longer running case or procedure</t>
+  </si>
+  <si>
+    <t>Applcations submitted to obtain a marketing authorization. Steps within the longer running case or procedure.</t>
   </si>
 </sst>
 </file>
@@ -766,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -775,42 +745,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="190.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="191.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="65.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.39453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2052,7 +2022,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -2127,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -2152,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -2164,7 +2134,7 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>113</v>
@@ -2227,7 +2197,7 @@
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -2252,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2327,7 +2297,7 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2364,13 +2334,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2441,7 +2411,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2464,7 +2434,7 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>123</v>
@@ -2521,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2652,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2664,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>130</v>
@@ -2727,7 +2697,7 @@
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2752,7 +2722,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2764,13 +2734,13 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2827,13 +2797,13 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>37</v>
@@ -2841,7 +2811,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2861,16 +2831,16 @@
         <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2921,7 +2891,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2936,23 +2906,23 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2961,18 +2931,20 @@
         <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>37</v>
@@ -3021,13 +2993,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -3036,16 +3008,16 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3058,22 +3030,26 @@
         <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>37</v>
       </c>
@@ -3121,7 +3097,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3133,15 +3109,15 @@
         <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3149,7 +3125,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>45</v>
@@ -3161,16 +3137,16 @@
         <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3224,7 +3200,7 @@
         <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>45</v>
@@ -3236,23 +3212,23 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3261,20 +3237,18 @@
         <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>37</v>
@@ -3326,10 +3300,10 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3338,16 +3312,16 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3360,26 +3334,22 @@
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>37</v>
       </c>
@@ -3427,7 +3397,7 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
@@ -3442,12 +3412,12 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3458,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3470,13 +3440,13 @@
         <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3527,13 +3497,13 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3547,7 +3517,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3570,13 +3540,13 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3627,7 +3597,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3647,7 +3617,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3658,7 +3628,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3670,13 +3640,13 @@
         <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3727,19 +3697,19 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>37</v>
@@ -3747,7 +3717,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3767,16 +3737,16 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3827,7 +3797,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3842,23 +3812,23 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -3867,18 +3837,20 @@
         <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>37</v>
@@ -3927,13 +3899,13 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -3942,7 +3914,7 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
@@ -3951,35 +3923,39 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>37</v>
       </c>
@@ -4027,13 +4003,13 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>37</v>
@@ -4042,12 +4018,12 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4070,13 +4046,13 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4127,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4147,7 +4123,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4170,13 +4146,13 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4227,7 +4203,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4239,7 +4215,7 @@
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>37</v>
@@ -4247,7 +4223,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4267,16 +4243,16 @@
         <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4327,7 +4303,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4342,23 +4318,23 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>37</v>
@@ -4367,20 +4343,18 @@
         <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>37</v>
@@ -4429,13 +4403,13 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>37</v>
@@ -4444,16 +4418,16 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4466,26 +4440,22 @@
         <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>37</v>
       </c>
@@ -4533,7 +4503,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4548,406 +4518,6 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
         <v>37</v>
       </c>
     </row>
